--- a/GATEWAY/A1#111AZSERVESRLXX/Azserve/EumedWeb/1.0.0/report-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111AZSERVESRLXX/Azserve/EumedWeb/1.0.0/report-checklist_V8.2.2.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="510">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -521,9 +521,6 @@
     <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo imposta sempre il campo automaticamente</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAD</t>
   </si>
   <si>
@@ -1497,28 +1494,6 @@
     <t xml:space="preserve">Campo obbligatorio</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L’applicativo non effettua l’invio senza aver specificato il livello di riservatezza.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Di default viene proposto al medico il livello di riservatezza “Normal” e può eventualmente scegliere di impostare il livello “Very Restricted”</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
   </si>
   <si>
@@ -1529,9 +1504,6 @@
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette l’invio di un codice fiscale non valido. I codici fiscali vengono sempre riportati in maiuscolo nel PSS.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Codice fiscale del paziente non valido.</t>
   </si>
   <si>
@@ -1545,10 +1517,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette di specificare il livello di riservatezza “Restricted”.
-Di default viene proposto al medico il livello di riservatezza “Normal” e può eventualmente scegliere di impostare il livello “Very Restricted”</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT8_KO</t>
   </si>
   <si>
@@ -1556,9 +1524,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette l’invio per un paziente se non sono stati specificati i dati di residenza, pertanto le informazioni vengono sempre riportate nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comune di residenza del paziente obbligatorio.</t>
   </si>
   <si>
@@ -1569,9 +1534,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette la presenza di anagrafiche dei pazienti senza cognome e/o nome, pertanto l’informazione viene sempre riportata nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT10_KO</t>
   </si>
   <si>
@@ -1579,10 +1541,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Altro (specificare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo non permette la presenza di anagrafiche dei pazienti con sesso diverso da “male” o “female”, pertanto l’informazione viene sempre riportata correttamente nel PSS</t>
+    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT11_KO</t>
@@ -1592,12 +1551,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo non permette di scegliere valori diversi da quelli ammessi</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT12_KO</t>
   </si>
   <si>
@@ -1605,9 +1558,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo valorizza sempre il campo code con attributo nullFlavor=”NA” nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT13_KO</t>
   </si>
   <si>
@@ -1615,6 +1565,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Altro (specificare)</t>
+  </si>
+  <si>
     <t xml:space="preserve">L’applicativo include sempre la sezione obbligatoria nel PSS obbligando il medico alla registrazione almeno del dato “Capacità motoria”</t>
   </si>
   <si>
@@ -1631,9 +1584,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo valorizza sempre il campo statusCode con attributo code=“completed” nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT15_KO</t>
   </si>
   <si>
@@ -1651,9 +1601,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette l’inserimento di una terapia senza aver specificato almeno la data di inizio, pertanto l’informazione viene sempre riportata nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT17_KO</t>
   </si>
   <si>
@@ -1661,9 +1608,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette l’inserimento del dato familiare senza aver specificato il grado di parentela, pertanto l’informazione viene sempre riportata nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT18_KO</t>
   </si>
   <si>
@@ -1671,9 +1615,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette l’inserimento di un’allergia senza aver specificato almeno la data di inizio, pertanto l’informazione viene sempre riportata nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT19_KO</t>
   </si>
   <si>
@@ -1681,9 +1622,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo non permette l’inserimento di un’allergia senza aver specificato l’agente scatenante, pertanto l’informazione viene sempre riportata nel PSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT20_KO</t>
   </si>
   <si>
@@ -1699,9 +1637,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo valorizza sempre il campo code con valore S</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
@@ -2037,7 +1972,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,12 +2070,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2656,7 +2585,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3167,11 +3096,11 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F185" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A174" activeCellId="0" sqref="A174"/>
-      <selection pane="bottomRight" activeCell="L180" activeCellId="0" sqref="L180"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A185" activeCellId="0" sqref="A185"/>
+      <selection pane="bottomRight" activeCell="L187" activeCellId="0" sqref="L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4335,9 +4264,7 @@
       <c r="K33" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
@@ -4360,10 +4287,10 @@
         <v>47</v>
       </c>
       <c r="C34" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>97</v>
@@ -4397,10 +4324,10 @@
         <v>47</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="E35" s="36" t="s">
         <v>97</v>
@@ -4437,7 +4364,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>97</v>
@@ -4474,7 +4401,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>97</v>
@@ -4511,7 +4438,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="36" t="s">
         <v>97</v>
@@ -4548,10 +4475,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>112</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>113</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31"/>
@@ -4585,10 +4512,10 @@
         <v>60</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
@@ -4622,10 +4549,10 @@
         <v>100</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
@@ -4637,9 +4564,7 @@
       <c r="K41" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
       <c r="O41" s="32"/>
@@ -4662,13 +4587,13 @@
         <v>47</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
@@ -4699,13 +4624,13 @@
         <v>47</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="31"/>
@@ -4739,10 +4664,10 @@
         <v>69</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
@@ -4776,10 +4701,10 @@
         <v>78</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="31"/>
@@ -4813,10 +4738,10 @@
         <v>87</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="31"/>
@@ -4850,10 +4775,10 @@
         <v>48</v>
       </c>
       <c r="D47" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="31"/>
@@ -4871,7 +4796,7 @@
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
       <c r="U47" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V47" s="34"/>
       <c r="W47" s="35" t="s">
@@ -4889,10 +4814,10 @@
         <v>60</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
@@ -4910,7 +4835,7 @@
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
       <c r="U48" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V48" s="34"/>
       <c r="W48" s="35" t="s">
@@ -4928,28 +4853,28 @@
         <v>100</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="31"/>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
       <c r="M49" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P49" s="32" t="s">
         <v>102</v>
@@ -4958,14 +4883,14 @@
         <v>102</v>
       </c>
       <c r="R49" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S49" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T49" s="32"/>
       <c r="U49" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V49" s="34"/>
       <c r="W49" s="35" t="s">
@@ -4980,13 +4905,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
@@ -5004,7 +4929,7 @@
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
       <c r="U50" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V50" s="34"/>
       <c r="W50" s="35" t="s">
@@ -5019,13 +4944,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="31"/>
@@ -5043,7 +4968,7 @@
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V51" s="34"/>
       <c r="W51" s="35" t="s">
@@ -5061,10 +4986,10 @@
         <v>69</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
@@ -5082,7 +5007,7 @@
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V52" s="34"/>
       <c r="W52" s="35" t="s">
@@ -5100,10 +5025,10 @@
         <v>78</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
@@ -5121,7 +5046,7 @@
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
       <c r="U53" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V53" s="34"/>
       <c r="W53" s="35" t="s">
@@ -5139,10 +5064,10 @@
         <v>87</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="31"/>
@@ -5160,7 +5085,7 @@
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
       <c r="U54" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V54" s="34"/>
       <c r="W54" s="35" t="s">
@@ -5178,10 +5103,10 @@
         <v>48</v>
       </c>
       <c r="D55" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>134</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="31"/>
@@ -5215,10 +5140,10 @@
         <v>48</v>
       </c>
       <c r="D56" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>136</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="31"/>
@@ -5252,10 +5177,10 @@
         <v>48</v>
       </c>
       <c r="D57" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="31"/>
@@ -5289,10 +5214,10 @@
         <v>48</v>
       </c>
       <c r="D58" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>140</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="31"/>
@@ -5326,10 +5251,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>141</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>142</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="31"/>
@@ -5363,10 +5288,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>144</v>
       </c>
       <c r="F60" s="30"/>
       <c r="G60" s="31"/>
@@ -5400,10 +5325,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>146</v>
       </c>
       <c r="F61" s="30"/>
       <c r="G61" s="31"/>
@@ -5437,10 +5362,10 @@
         <v>48</v>
       </c>
       <c r="D62" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>148</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
@@ -5474,10 +5399,10 @@
         <v>48</v>
       </c>
       <c r="D63" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="31"/>
@@ -5511,10 +5436,10 @@
         <v>48</v>
       </c>
       <c r="D64" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="31"/>
@@ -5548,10 +5473,10 @@
         <v>48</v>
       </c>
       <c r="D65" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="F65" s="30"/>
       <c r="G65" s="31"/>
@@ -5585,10 +5510,10 @@
         <v>60</v>
       </c>
       <c r="D66" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>155</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>156</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="31"/>
@@ -5622,10 +5547,10 @@
         <v>60</v>
       </c>
       <c r="D67" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="29" t="s">
         <v>157</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>158</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="31"/>
@@ -5659,10 +5584,10 @@
         <v>60</v>
       </c>
       <c r="D68" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="31"/>
@@ -5696,10 +5621,10 @@
         <v>60</v>
       </c>
       <c r="D69" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>161</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>162</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="31"/>
@@ -5733,10 +5658,10 @@
         <v>60</v>
       </c>
       <c r="D70" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>164</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="31"/>
@@ -5770,10 +5695,10 @@
         <v>60</v>
       </c>
       <c r="D71" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="31"/>
@@ -5807,10 +5732,10 @@
         <v>60</v>
       </c>
       <c r="D72" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>167</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>168</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="31"/>
@@ -5844,10 +5769,10 @@
         <v>60</v>
       </c>
       <c r="D73" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="31"/>
@@ -5881,10 +5806,10 @@
         <v>60</v>
       </c>
       <c r="D74" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>172</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="31"/>
@@ -5918,10 +5843,10 @@
         <v>60</v>
       </c>
       <c r="D75" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="31"/>
@@ -5955,10 +5880,10 @@
         <v>60</v>
       </c>
       <c r="D76" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
@@ -5992,10 +5917,10 @@
         <v>60</v>
       </c>
       <c r="D77" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
@@ -6026,13 +5951,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
@@ -6063,13 +5988,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="31"/>
@@ -6100,13 +6025,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="31"/>
@@ -6137,13 +6062,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="31"/>
@@ -6174,13 +6099,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="31"/>
@@ -6211,13 +6136,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>190</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="31"/>
@@ -6248,13 +6173,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>192</v>
       </c>
       <c r="F84" s="30"/>
       <c r="G84" s="31"/>
@@ -6285,13 +6210,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="F85" s="30"/>
       <c r="G85" s="31"/>
@@ -6322,13 +6247,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="31"/>
@@ -6359,13 +6284,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="F87" s="30"/>
       <c r="G87" s="31"/>
@@ -6396,13 +6321,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="31"/>
@@ -6433,13 +6358,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="31"/>
@@ -6470,13 +6395,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="31"/>
@@ -6507,13 +6432,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="29" t="s">
         <v>205</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>206</v>
       </c>
       <c r="F91" s="30"/>
       <c r="G91" s="31"/>
@@ -6544,13 +6469,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>207</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>208</v>
       </c>
       <c r="F92" s="30"/>
       <c r="G92" s="31"/>
@@ -6581,13 +6506,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="29" t="s">
         <v>209</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>210</v>
       </c>
       <c r="F93" s="30"/>
       <c r="G93" s="31"/>
@@ -6618,13 +6543,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>211</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>212</v>
       </c>
       <c r="F94" s="30"/>
       <c r="G94" s="31"/>
@@ -6655,13 +6580,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>213</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="F95" s="30"/>
       <c r="G95" s="31"/>
@@ -6692,13 +6617,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>216</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="31"/>
@@ -6732,10 +6657,10 @@
         <v>69</v>
       </c>
       <c r="D97" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E97" s="29" t="s">
         <v>217</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>218</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="31"/>
@@ -6769,10 +6694,10 @@
         <v>69</v>
       </c>
       <c r="D98" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>219</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>220</v>
       </c>
       <c r="F98" s="30"/>
       <c r="G98" s="31"/>
@@ -6806,10 +6731,10 @@
         <v>69</v>
       </c>
       <c r="D99" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>222</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="31"/>
@@ -6843,10 +6768,10 @@
         <v>69</v>
       </c>
       <c r="D100" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="F100" s="30"/>
       <c r="G100" s="31"/>
@@ -6880,10 +6805,10 @@
         <v>69</v>
       </c>
       <c r="D101" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>226</v>
       </c>
       <c r="F101" s="30"/>
       <c r="G101" s="31"/>
@@ -6917,10 +6842,10 @@
         <v>69</v>
       </c>
       <c r="D102" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="29" t="s">
         <v>227</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>228</v>
       </c>
       <c r="F102" s="30"/>
       <c r="G102" s="31"/>
@@ -6954,10 +6879,10 @@
         <v>69</v>
       </c>
       <c r="D103" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="29" t="s">
         <v>229</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>230</v>
       </c>
       <c r="F103" s="30"/>
       <c r="G103" s="31"/>
@@ -6991,10 +6916,10 @@
         <v>69</v>
       </c>
       <c r="D104" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="31"/>
@@ -7028,10 +6953,10 @@
         <v>69</v>
       </c>
       <c r="D105" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="31"/>
@@ -7065,10 +6990,10 @@
         <v>69</v>
       </c>
       <c r="D106" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="F106" s="30"/>
       <c r="G106" s="31"/>
@@ -7102,10 +7027,10 @@
         <v>69</v>
       </c>
       <c r="D107" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="F107" s="30"/>
       <c r="G107" s="31"/>
@@ -7139,10 +7064,10 @@
         <v>69</v>
       </c>
       <c r="D108" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>240</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="31"/>
@@ -7176,10 +7101,10 @@
         <v>69</v>
       </c>
       <c r="D109" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>242</v>
       </c>
       <c r="F109" s="30"/>
       <c r="G109" s="31"/>
@@ -7213,10 +7138,10 @@
         <v>78</v>
       </c>
       <c r="D110" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>243</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>244</v>
       </c>
       <c r="F110" s="30"/>
       <c r="G110" s="31"/>
@@ -7250,10 +7175,10 @@
         <v>78</v>
       </c>
       <c r="D111" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>245</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>246</v>
       </c>
       <c r="F111" s="30"/>
       <c r="G111" s="31"/>
@@ -7287,10 +7212,10 @@
         <v>78</v>
       </c>
       <c r="D112" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="29" t="s">
         <v>247</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>248</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="31"/>
@@ -7324,10 +7249,10 @@
         <v>78</v>
       </c>
       <c r="D113" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>250</v>
       </c>
       <c r="F113" s="30"/>
       <c r="G113" s="31"/>
@@ -7361,10 +7286,10 @@
         <v>78</v>
       </c>
       <c r="D114" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>251</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>252</v>
       </c>
       <c r="F114" s="30"/>
       <c r="G114" s="31"/>
@@ -7398,10 +7323,10 @@
         <v>78</v>
       </c>
       <c r="D115" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>254</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="31"/>
@@ -7435,10 +7360,10 @@
         <v>78</v>
       </c>
       <c r="D116" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>256</v>
       </c>
       <c r="F116" s="30"/>
       <c r="G116" s="31"/>
@@ -7472,10 +7397,10 @@
         <v>78</v>
       </c>
       <c r="D117" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="31"/>
@@ -7509,10 +7434,10 @@
         <v>78</v>
       </c>
       <c r="D118" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E118" s="29" t="s">
         <v>259</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>260</v>
       </c>
       <c r="F118" s="30"/>
       <c r="G118" s="31"/>
@@ -7546,10 +7471,10 @@
         <v>78</v>
       </c>
       <c r="D119" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>261</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>262</v>
       </c>
       <c r="F119" s="30"/>
       <c r="G119" s="31"/>
@@ -7583,10 +7508,10 @@
         <v>78</v>
       </c>
       <c r="D120" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>264</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="31"/>
@@ -7620,10 +7545,10 @@
         <v>78</v>
       </c>
       <c r="D121" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E121" s="29" t="s">
         <v>265</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>266</v>
       </c>
       <c r="F121" s="30"/>
       <c r="G121" s="31"/>
@@ -7657,10 +7582,10 @@
         <v>78</v>
       </c>
       <c r="D122" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="29" t="s">
         <v>267</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>268</v>
       </c>
       <c r="F122" s="30"/>
       <c r="G122" s="31"/>
@@ -7694,10 +7619,10 @@
         <v>78</v>
       </c>
       <c r="D123" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>270</v>
       </c>
       <c r="F123" s="30"/>
       <c r="G123" s="31"/>
@@ -7731,10 +7656,10 @@
         <v>78</v>
       </c>
       <c r="D124" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E124" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>272</v>
       </c>
       <c r="F124" s="30"/>
       <c r="G124" s="31"/>
@@ -7768,10 +7693,10 @@
         <v>87</v>
       </c>
       <c r="D125" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="29" t="s">
         <v>273</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>274</v>
       </c>
       <c r="F125" s="30"/>
       <c r="G125" s="31"/>
@@ -7805,10 +7730,10 @@
         <v>87</v>
       </c>
       <c r="D126" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>276</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="31"/>
@@ -7842,10 +7767,10 @@
         <v>87</v>
       </c>
       <c r="D127" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E127" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>278</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="31"/>
@@ -7879,10 +7804,10 @@
         <v>87</v>
       </c>
       <c r="D128" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="29" t="s">
         <v>279</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="31"/>
@@ -7916,10 +7841,10 @@
         <v>87</v>
       </c>
       <c r="D129" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>282</v>
       </c>
       <c r="F129" s="30"/>
       <c r="G129" s="31"/>
@@ -7953,10 +7878,10 @@
         <v>87</v>
       </c>
       <c r="D130" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E130" s="29" t="s">
         <v>283</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>284</v>
       </c>
       <c r="F130" s="30"/>
       <c r="G130" s="31"/>
@@ -7990,10 +7915,10 @@
         <v>87</v>
       </c>
       <c r="D131" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E131" s="29" t="s">
         <v>285</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>286</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="31"/>
@@ -8027,10 +7952,10 @@
         <v>87</v>
       </c>
       <c r="D132" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="29" t="s">
         <v>287</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>288</v>
       </c>
       <c r="F132" s="30"/>
       <c r="G132" s="31"/>
@@ -8064,10 +7989,10 @@
         <v>87</v>
       </c>
       <c r="D133" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" s="29" t="s">
         <v>289</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>290</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="31"/>
@@ -8101,10 +8026,10 @@
         <v>87</v>
       </c>
       <c r="D134" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E134" s="29" t="s">
         <v>291</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>292</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="31"/>
@@ -8138,10 +8063,10 @@
         <v>87</v>
       </c>
       <c r="D135" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E135" s="29" t="s">
         <v>293</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>294</v>
       </c>
       <c r="F135" s="30"/>
       <c r="G135" s="31"/>
@@ -8175,10 +8100,10 @@
         <v>87</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E136" s="29" t="s">
         <v>295</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>296</v>
       </c>
       <c r="F136" s="30"/>
       <c r="G136" s="31"/>
@@ -8212,10 +8137,10 @@
         <v>87</v>
       </c>
       <c r="D137" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E137" s="29" t="s">
         <v>297</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>298</v>
       </c>
       <c r="F137" s="30"/>
       <c r="G137" s="31"/>
@@ -8249,10 +8174,10 @@
         <v>87</v>
       </c>
       <c r="D138" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E138" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="F138" s="30"/>
       <c r="G138" s="31"/>
@@ -8286,10 +8211,10 @@
         <v>87</v>
       </c>
       <c r="D139" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E139" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="F139" s="30"/>
       <c r="G139" s="31"/>
@@ -8323,10 +8248,10 @@
         <v>87</v>
       </c>
       <c r="D140" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E140" s="29" t="s">
         <v>303</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>304</v>
       </c>
       <c r="F140" s="30"/>
       <c r="G140" s="31"/>
@@ -8360,10 +8285,10 @@
         <v>87</v>
       </c>
       <c r="D141" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E141" s="29" t="s">
         <v>305</v>
-      </c>
-      <c r="E141" s="29" t="s">
-        <v>306</v>
       </c>
       <c r="F141" s="30"/>
       <c r="G141" s="31"/>
@@ -8397,10 +8322,10 @@
         <v>87</v>
       </c>
       <c r="D142" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E142" s="29" t="s">
         <v>307</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>308</v>
       </c>
       <c r="F142" s="30"/>
       <c r="G142" s="31"/>
@@ -8434,10 +8359,10 @@
         <v>87</v>
       </c>
       <c r="D143" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E143" s="29" t="s">
         <v>309</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>310</v>
       </c>
       <c r="F143" s="30"/>
       <c r="G143" s="31"/>
@@ -8471,10 +8396,10 @@
         <v>87</v>
       </c>
       <c r="D144" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E144" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>312</v>
       </c>
       <c r="F144" s="30"/>
       <c r="G144" s="31"/>
@@ -8508,10 +8433,10 @@
         <v>87</v>
       </c>
       <c r="D145" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E145" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>314</v>
       </c>
       <c r="F145" s="30"/>
       <c r="G145" s="31"/>
@@ -8545,10 +8470,10 @@
         <v>87</v>
       </c>
       <c r="D146" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E146" s="29" t="s">
         <v>315</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>316</v>
       </c>
       <c r="F146" s="30"/>
       <c r="G146" s="31"/>
@@ -8582,10 +8507,10 @@
         <v>87</v>
       </c>
       <c r="D147" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E147" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>318</v>
       </c>
       <c r="F147" s="30"/>
       <c r="G147" s="31"/>
@@ -8619,10 +8544,10 @@
         <v>87</v>
       </c>
       <c r="D148" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E148" s="29" t="s">
         <v>319</v>
-      </c>
-      <c r="E148" s="29" t="s">
-        <v>320</v>
       </c>
       <c r="F148" s="30"/>
       <c r="G148" s="31"/>
@@ -8656,10 +8581,10 @@
         <v>87</v>
       </c>
       <c r="D149" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E149" s="29" t="s">
         <v>321</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>322</v>
       </c>
       <c r="F149" s="30"/>
       <c r="G149" s="31"/>
@@ -8690,13 +8615,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D150" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E150" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>324</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="31"/>
@@ -8727,13 +8652,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D151" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E151" s="29" t="s">
         <v>325</v>
-      </c>
-      <c r="E151" s="29" t="s">
-        <v>326</v>
       </c>
       <c r="F151" s="30"/>
       <c r="G151" s="31"/>
@@ -8764,13 +8689,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D152" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E152" s="29" t="s">
         <v>327</v>
-      </c>
-      <c r="E152" s="29" t="s">
-        <v>328</v>
       </c>
       <c r="F152" s="30"/>
       <c r="G152" s="31"/>
@@ -8801,13 +8726,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D153" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E153" s="29" t="s">
         <v>329</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="F153" s="30"/>
       <c r="G153" s="31"/>
@@ -8838,13 +8763,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D154" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E154" s="29" t="s">
         <v>331</v>
-      </c>
-      <c r="E154" s="29" t="s">
-        <v>332</v>
       </c>
       <c r="F154" s="30"/>
       <c r="G154" s="31"/>
@@ -8875,13 +8800,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D155" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E155" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>334</v>
       </c>
       <c r="F155" s="30"/>
       <c r="G155" s="31"/>
@@ -8912,13 +8837,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D156" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E156" s="29" t="s">
         <v>335</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>336</v>
       </c>
       <c r="F156" s="30"/>
       <c r="G156" s="31"/>
@@ -8949,13 +8874,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D157" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E157" s="29" t="s">
         <v>337</v>
-      </c>
-      <c r="E157" s="29" t="s">
-        <v>338</v>
       </c>
       <c r="F157" s="30"/>
       <c r="G157" s="31"/>
@@ -8986,13 +8911,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D158" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E158" s="29" t="s">
         <v>339</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>340</v>
       </c>
       <c r="F158" s="30"/>
       <c r="G158" s="31"/>
@@ -9023,13 +8948,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D159" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E159" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="E159" s="29" t="s">
-        <v>342</v>
       </c>
       <c r="F159" s="30"/>
       <c r="G159" s="31"/>
@@ -9060,13 +8985,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D160" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="E160" s="29" t="s">
         <v>343</v>
-      </c>
-      <c r="E160" s="29" t="s">
-        <v>344</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="31"/>
@@ -9097,13 +9022,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D161" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="E161" s="29" t="s">
         <v>345</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>346</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="31"/>
@@ -9134,13 +9059,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D162" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E162" s="29" t="s">
         <v>347</v>
-      </c>
-      <c r="E162" s="29" t="s">
-        <v>348</v>
       </c>
       <c r="F162" s="30"/>
       <c r="G162" s="31"/>
@@ -9171,13 +9096,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D163" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E163" s="29" t="s">
         <v>349</v>
-      </c>
-      <c r="E163" s="29" t="s">
-        <v>350</v>
       </c>
       <c r="F163" s="30"/>
       <c r="G163" s="31"/>
@@ -9208,13 +9133,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D164" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="E164" s="29" t="s">
         <v>351</v>
-      </c>
-      <c r="E164" s="29" t="s">
-        <v>352</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="31"/>
@@ -9245,13 +9170,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D165" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="E165" s="29" t="s">
         <v>353</v>
-      </c>
-      <c r="E165" s="29" t="s">
-        <v>354</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="31"/>
@@ -9282,13 +9207,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D166" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="E166" s="29" t="s">
-        <v>356</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="31"/>
@@ -9319,13 +9244,13 @@
         <v>47</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D167" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E167" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="E167" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="31"/>
@@ -9356,13 +9281,13 @@
         <v>47</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D168" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" s="29" t="s">
         <v>359</v>
-      </c>
-      <c r="E168" s="29" t="s">
-        <v>360</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="31"/>
@@ -9393,13 +9318,13 @@
         <v>47</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D169" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E169" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="E169" s="29" t="s">
-        <v>362</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="31"/>
@@ -9430,13 +9355,13 @@
         <v>47</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D170" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E170" s="29" t="s">
         <v>363</v>
-      </c>
-      <c r="E170" s="29" t="s">
-        <v>364</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="31"/>
@@ -9467,13 +9392,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D171" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E171" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="E171" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="31"/>
@@ -9504,13 +9429,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D172" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E172" s="29" t="s">
         <v>367</v>
-      </c>
-      <c r="E172" s="29" t="s">
-        <v>368</v>
       </c>
       <c r="F172" s="30"/>
       <c r="G172" s="31"/>
@@ -9544,10 +9469,10 @@
         <v>100</v>
       </c>
       <c r="D173" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E173" s="29" t="s">
         <v>369</v>
-      </c>
-      <c r="E173" s="29" t="s">
-        <v>370</v>
       </c>
       <c r="F173" s="30"/>
       <c r="G173" s="31"/>
@@ -9557,12 +9482,10 @@
         <v>102</v>
       </c>
       <c r="K173" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="L173" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="M173" s="37"/>
+        <v>370</v>
+      </c>
+      <c r="L173" s="37"/>
+      <c r="M173" s="32"/>
       <c r="N173" s="32"/>
       <c r="O173" s="32"/>
       <c r="P173" s="32"/>
@@ -9587,10 +9510,10 @@
         <v>100</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F174" s="30"/>
       <c r="G174" s="31"/>
@@ -9600,19 +9523,17 @@
         <v>102</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="L174" s="32" t="s">
-        <v>376</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="L174" s="32"/>
       <c r="M174" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N174" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O174" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P174" s="32" t="s">
         <v>102</v>
@@ -9621,10 +9542,10 @@
         <v>102</v>
       </c>
       <c r="R174" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S174" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="T174" s="32"/>
       <c r="U174" s="33"/>
@@ -9644,10 +9565,10 @@
         <v>100</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F175" s="30"/>
       <c r="G175" s="31"/>
@@ -9657,12 +9578,10 @@
         <v>102</v>
       </c>
       <c r="K175" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="L175" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="M175" s="37"/>
+        <v>373</v>
+      </c>
+      <c r="L175" s="32"/>
+      <c r="M175" s="32"/>
       <c r="N175" s="32"/>
       <c r="O175" s="32"/>
       <c r="P175" s="32"/>
@@ -9687,10 +9606,10 @@
         <v>100</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="31"/>
@@ -9700,19 +9619,17 @@
         <v>102</v>
       </c>
       <c r="K176" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="L176" s="32" t="s">
-        <v>384</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="L176" s="32"/>
       <c r="M176" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N176" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O176" s="32" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P176" s="32" t="s">
         <v>102</v>
@@ -9721,10 +9638,10 @@
         <v>102</v>
       </c>
       <c r="R176" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S176" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="T176" s="32"/>
       <c r="U176" s="33"/>
@@ -9744,10 +9661,10 @@
         <v>100</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="31"/>
@@ -9757,11 +9674,9 @@
         <v>102</v>
       </c>
       <c r="K177" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="L177" s="32" t="s">
-        <v>388</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="L177" s="32"/>
       <c r="M177" s="32"/>
       <c r="N177" s="32"/>
       <c r="O177" s="32"/>
@@ -9787,10 +9702,10 @@
         <v>100</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="31"/>
@@ -9800,11 +9715,9 @@
         <v>102</v>
       </c>
       <c r="K178" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="L178" s="32" t="s">
-        <v>392</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="L178" s="32"/>
       <c r="M178" s="32"/>
       <c r="N178" s="32"/>
       <c r="O178" s="32"/>
@@ -9830,10 +9743,10 @@
         <v>100</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="31"/>
@@ -9843,12 +9756,10 @@
         <v>102</v>
       </c>
       <c r="K179" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="L179" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="M179" s="37"/>
+        <v>385</v>
+      </c>
+      <c r="L179" s="32"/>
+      <c r="M179" s="32"/>
       <c r="N179" s="32"/>
       <c r="O179" s="32"/>
       <c r="P179" s="32"/>
@@ -9873,10 +9784,10 @@
         <v>100</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="31"/>
@@ -9888,9 +9799,7 @@
       <c r="K180" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L180" s="38" t="s">
-        <v>399</v>
-      </c>
+      <c r="L180" s="38"/>
       <c r="M180" s="32"/>
       <c r="N180" s="32"/>
       <c r="O180" s="32"/>
@@ -9916,10 +9825,10 @@
         <v>100</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="31"/>
@@ -9929,19 +9838,19 @@
         <v>102</v>
       </c>
       <c r="K181" s="32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L181" s="32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M181" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N181" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O181" s="32" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P181" s="32" t="s">
         <v>102</v>
@@ -9950,10 +9859,10 @@
         <v>102</v>
       </c>
       <c r="R181" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S181" s="32" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="T181" s="32"/>
       <c r="U181" s="33"/>
@@ -9973,10 +9882,10 @@
         <v>100</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="31"/>
@@ -9988,9 +9897,7 @@
       <c r="K182" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L182" s="32" t="s">
-        <v>407</v>
-      </c>
+      <c r="L182" s="32"/>
       <c r="M182" s="32"/>
       <c r="N182" s="32"/>
       <c r="O182" s="32"/>
@@ -10016,10 +9923,10 @@
         <v>100</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="31"/>
@@ -10029,10 +9936,10 @@
         <v>102</v>
       </c>
       <c r="K183" s="32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L183" s="32" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M183" s="32"/>
       <c r="N183" s="32"/>
@@ -10059,10 +9966,10 @@
         <v>100</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="31"/>
@@ -10072,11 +9979,9 @@
         <v>102</v>
       </c>
       <c r="K184" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="L184" s="32" t="s">
-        <v>413</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="L184" s="32"/>
       <c r="M184" s="32"/>
       <c r="N184" s="32"/>
       <c r="O184" s="32"/>
@@ -10102,10 +10007,10 @@
         <v>100</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="31"/>
@@ -10115,11 +10020,9 @@
         <v>102</v>
       </c>
       <c r="K185" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="L185" s="32" t="s">
-        <v>416</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="L185" s="32"/>
       <c r="M185" s="32"/>
       <c r="N185" s="32"/>
       <c r="O185" s="32"/>
@@ -10145,10 +10048,10 @@
         <v>100</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F186" s="30"/>
       <c r="G186" s="31"/>
@@ -10158,11 +10061,9 @@
         <v>102</v>
       </c>
       <c r="K186" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="L186" s="32" t="s">
-        <v>419</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="L186" s="32"/>
       <c r="M186" s="32"/>
       <c r="N186" s="32"/>
       <c r="O186" s="32"/>
@@ -10188,10 +10089,10 @@
         <v>100</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="31"/>
@@ -10201,11 +10102,9 @@
         <v>102</v>
       </c>
       <c r="K187" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="L187" s="32" t="s">
-        <v>422</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="L187" s="32"/>
       <c r="M187" s="32"/>
       <c r="N187" s="32"/>
       <c r="O187" s="32"/>
@@ -10231,10 +10130,10 @@
         <v>100</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F188" s="30"/>
       <c r="G188" s="31"/>
@@ -10244,10 +10143,10 @@
         <v>102</v>
       </c>
       <c r="K188" s="32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L188" s="32" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="M188" s="32"/>
       <c r="N188" s="32"/>
@@ -10274,10 +10173,10 @@
         <v>100</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="31"/>
@@ -10289,9 +10188,7 @@
       <c r="K189" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L189" s="32" t="s">
-        <v>428</v>
-      </c>
+      <c r="L189" s="32"/>
       <c r="M189" s="32"/>
       <c r="N189" s="32"/>
       <c r="O189" s="32"/>
@@ -10317,10 +10214,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="31"/>
@@ -10354,10 +10251,10 @@
         <v>48</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F191" s="30"/>
       <c r="G191" s="31"/>
@@ -10391,10 +10288,10 @@
         <v>60</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F192" s="30"/>
       <c r="G192" s="31"/>
@@ -10428,10 +10325,10 @@
         <v>69</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E193" s="29" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F193" s="30"/>
       <c r="G193" s="31"/>
@@ -10465,10 +10362,10 @@
         <v>78</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E194" s="29" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F194" s="30"/>
       <c r="G194" s="31"/>
@@ -10502,10 +10399,10 @@
         <v>87</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="F195" s="30"/>
       <c r="G195" s="31"/>
@@ -10536,13 +10433,13 @@
         <v>47</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E196" s="29" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F196" s="30"/>
       <c r="G196" s="31"/>
@@ -10576,10 +10473,10 @@
         <v>48</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F197" s="43"/>
       <c r="G197" s="44"/>
@@ -10610,13 +10507,13 @@
         <v>47</v>
       </c>
       <c r="C198" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E198" s="52" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F198" s="53"/>
       <c r="G198" s="54"/>
@@ -10647,13 +10544,13 @@
         <v>47</v>
       </c>
       <c r="C199" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D199" s="51" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E199" s="59" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F199" s="53"/>
       <c r="G199" s="54"/>
@@ -10684,13 +10581,13 @@
         <v>47</v>
       </c>
       <c r="C200" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D200" s="51" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E200" s="59" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F200" s="53"/>
       <c r="G200" s="54"/>
@@ -10721,10 +10618,10 @@
         <v>47</v>
       </c>
       <c r="C201" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="E201" s="60" t="s">
         <v>97</v>
@@ -10758,13 +10655,13 @@
         <v>47</v>
       </c>
       <c r="C202" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D202" s="51" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E202" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F202" s="53"/>
       <c r="G202" s="54"/>
@@ -10795,13 +10692,13 @@
         <v>47</v>
       </c>
       <c r="C203" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D203" s="51" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E203" s="59" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F203" s="53"/>
       <c r="G203" s="54"/>
@@ -10832,13 +10729,13 @@
         <v>47</v>
       </c>
       <c r="C204" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D204" s="51" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="E204" s="59" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F204" s="53"/>
       <c r="G204" s="54"/>
@@ -10869,13 +10766,13 @@
         <v>47</v>
       </c>
       <c r="C205" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D205" s="51" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="E205" s="59" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F205" s="53"/>
       <c r="G205" s="54"/>
@@ -10906,13 +10803,13 @@
         <v>47</v>
       </c>
       <c r="C206" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D206" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="D206" s="51" t="s">
-        <v>460</v>
-      </c>
       <c r="E206" s="59" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F206" s="53"/>
       <c r="G206" s="54"/>
@@ -10943,13 +10840,13 @@
         <v>47</v>
       </c>
       <c r="C207" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D207" s="51" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E207" s="59" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F207" s="53"/>
       <c r="G207" s="54"/>
@@ -10980,13 +10877,13 @@
         <v>47</v>
       </c>
       <c r="C208" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D208" s="51" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E208" s="59" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F208" s="53"/>
       <c r="G208" s="54"/>
@@ -11017,13 +10914,13 @@
         <v>47</v>
       </c>
       <c r="C209" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D209" s="51" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E209" s="59" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F209" s="53"/>
       <c r="G209" s="54"/>
@@ -11054,13 +10951,13 @@
         <v>47</v>
       </c>
       <c r="C210" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D210" s="51" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="E210" s="59" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F210" s="53"/>
       <c r="G210" s="54"/>
@@ -11091,13 +10988,13 @@
         <v>47</v>
       </c>
       <c r="C211" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D211" s="51" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="E211" s="59" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F211" s="53"/>
       <c r="G211" s="54"/>
@@ -11128,13 +11025,13 @@
         <v>47</v>
       </c>
       <c r="C212" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D212" s="51" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="E212" s="59" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F212" s="53"/>
       <c r="G212" s="54"/>
@@ -11165,13 +11062,13 @@
         <v>47</v>
       </c>
       <c r="C213" s="41" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D213" s="41" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F213" s="43"/>
       <c r="G213" s="44"/>
@@ -11202,13 +11099,13 @@
         <v>47</v>
       </c>
       <c r="C214" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D214" s="50" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E214" s="52" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F214" s="53"/>
       <c r="G214" s="54"/>
@@ -11242,25 +11139,25 @@
         <v>100</v>
       </c>
       <c r="D215" s="50" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E215" s="52" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F215" s="53" t="n">
         <v>45678</v>
       </c>
       <c r="G215" s="54" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="H215" s="54" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="I215" s="54" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="J215" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K215" s="55"/>
       <c r="L215" s="55"/>
@@ -11289,25 +11186,25 @@
         <v>100</v>
       </c>
       <c r="D216" s="50" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E216" s="52" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="F216" s="53" t="n">
         <v>45678</v>
       </c>
       <c r="G216" s="54" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="H216" s="54" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="I216" s="54" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="J216" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K216" s="55"/>
       <c r="L216" s="55"/>
@@ -11333,13 +11230,13 @@
         <v>47</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D217" s="41" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="E217" s="42" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F217" s="43"/>
       <c r="G217" s="44"/>
@@ -11370,13 +11267,13 @@
         <v>47</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D218" s="50" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="E218" s="52" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F218" s="53"/>
       <c r="G218" s="54"/>
@@ -11407,13 +11304,13 @@
         <v>47</v>
       </c>
       <c r="C219" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D219" s="50" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E219" s="52" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F219" s="53"/>
       <c r="G219" s="54"/>
@@ -15605,17 +15502,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15625,22 +15522,22 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -15680,22 +15577,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="63" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15703,13 +15600,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15717,27 +15614,27 @@
         <v>60</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>446.447</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15745,13 +15642,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15759,13 +15656,13 @@
         <v>78</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15773,27 +15670,27 @@
         <v>87</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15801,41 +15698,41 @@
         <v>100</v>
       </c>
       <c r="B9" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" s="68" t="s">
         <v>502</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>516</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="66" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="66" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -15879,15 +15776,15 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="69" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="69" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>102</v>

--- a/GATEWAY/A1#111AZSERVESRLXX/Azserve/EumedWeb/1.0.0/report-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111AZSERVESRLXX/Azserve/EumedWeb/1.0.0/report-checklist_V8.2.2.xlsx
@@ -1823,13 +1823,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-21T11:18:57Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47372a1eb51dc63d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.66b271507bf07ffca613fc1ce7e2ac85d3b5b5b76c409fb48089ed21e1df176c.ba7e5aac99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-23T16:56:27Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c02480ed5fa7ba55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.c9855af3dc795b7d5539b10167cc4da13c9e7fd1207646c0a47862ca5b3571e0.f78f11e5d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
@@ -1840,13 +1840,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-20T11:21:49Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61a5a5a4e0cc4b88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.ce15c693c3fed991aac4a738a069b0c52379e20dcde5f5edd0d517031ec0c152.2ef782caa5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-23T16:59:25Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4b2fc22782320d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.ac6ebfe9d87591f32c9b33d3ffe07da1f8570cc1af5f203f7d789a7b28eb56c9.8c37dfb63b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -2328,7 +2328,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2475,10 +2475,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3096,11 +3092,11 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F189" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A185" activeCellId="0" sqref="A185"/>
-      <selection pane="bottomRight" activeCell="L187" activeCellId="0" sqref="L187"/>
+      <selection pane="bottomLeft" activeCell="A189" activeCellId="0" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="J216" activeCellId="0" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3387,7 +3383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>1</v>
       </c>
@@ -9484,7 +9480,7 @@
       <c r="K173" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="L173" s="37"/>
+      <c r="L173" s="32"/>
       <c r="M173" s="32"/>
       <c r="N173" s="32"/>
       <c r="O173" s="32"/>
@@ -9799,7 +9795,7 @@
       <c r="K180" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L180" s="38"/>
+      <c r="L180" s="37"/>
       <c r="M180" s="32"/>
       <c r="N180" s="32"/>
       <c r="O180" s="32"/>
@@ -10458,878 +10454,878 @@
       <c r="T196" s="32"/>
       <c r="U196" s="33"/>
       <c r="V196" s="34"/>
-      <c r="W196" s="39" t="s">
+      <c r="W196" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="40" t="n">
+      <c r="A197" s="39" t="n">
         <v>376</v>
       </c>
-      <c r="B197" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="41" t="s">
+      <c r="B197" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="41" t="s">
+      <c r="D197" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="E197" s="42" t="s">
+      <c r="E197" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="F197" s="43"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="44"/>
-      <c r="I197" s="44"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-      <c r="L197" s="45"/>
-      <c r="M197" s="45"/>
-      <c r="N197" s="45"/>
-      <c r="O197" s="45"/>
-      <c r="P197" s="45"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="45"/>
-      <c r="S197" s="45"/>
-      <c r="T197" s="45"/>
-      <c r="U197" s="46"/>
-      <c r="V197" s="47"/>
-      <c r="W197" s="48" t="s">
+      <c r="F197" s="42"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
+      <c r="I197" s="43"/>
+      <c r="J197" s="44"/>
+      <c r="K197" s="44"/>
+      <c r="L197" s="44"/>
+      <c r="M197" s="44"/>
+      <c r="N197" s="44"/>
+      <c r="O197" s="44"/>
+      <c r="P197" s="44"/>
+      <c r="Q197" s="44"/>
+      <c r="R197" s="44"/>
+      <c r="S197" s="44"/>
+      <c r="T197" s="44"/>
+      <c r="U197" s="45"/>
+      <c r="V197" s="46"/>
+      <c r="W197" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="49" t="n">
+      <c r="A198" s="48" t="n">
         <v>417</v>
       </c>
-      <c r="B198" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C198" s="50" t="s">
+      <c r="B198" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D198" s="51" t="s">
+      <c r="D198" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="E198" s="52" t="s">
+      <c r="E198" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="F198" s="53"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="55"/>
-      <c r="L198" s="55"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="55"/>
-      <c r="O198" s="55"/>
-      <c r="P198" s="55"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="55"/>
-      <c r="S198" s="55"/>
-      <c r="T198" s="55"/>
-      <c r="U198" s="56"/>
-      <c r="V198" s="57"/>
-      <c r="W198" s="58" t="s">
+      <c r="F198" s="52"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
+      <c r="P198" s="54"/>
+      <c r="Q198" s="54"/>
+      <c r="R198" s="54"/>
+      <c r="S198" s="54"/>
+      <c r="T198" s="54"/>
+      <c r="U198" s="55"/>
+      <c r="V198" s="56"/>
+      <c r="W198" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="49" t="n">
+      <c r="A199" s="48" t="n">
         <v>418</v>
       </c>
-      <c r="B199" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C199" s="50" t="s">
+      <c r="B199" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D199" s="51" t="s">
+      <c r="D199" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="E199" s="59" t="s">
+      <c r="E199" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="F199" s="53"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="55"/>
-      <c r="L199" s="55"/>
-      <c r="M199" s="55"/>
-      <c r="N199" s="55"/>
-      <c r="O199" s="55"/>
-      <c r="P199" s="55"/>
-      <c r="Q199" s="55"/>
-      <c r="R199" s="55"/>
-      <c r="S199" s="55"/>
-      <c r="T199" s="55"/>
-      <c r="U199" s="56"/>
-      <c r="V199" s="57"/>
-      <c r="W199" s="58" t="s">
+      <c r="F199" s="52"/>
+      <c r="G199" s="53"/>
+      <c r="H199" s="53"/>
+      <c r="I199" s="53"/>
+      <c r="J199" s="54"/>
+      <c r="K199" s="54"/>
+      <c r="L199" s="54"/>
+      <c r="M199" s="54"/>
+      <c r="N199" s="54"/>
+      <c r="O199" s="54"/>
+      <c r="P199" s="54"/>
+      <c r="Q199" s="54"/>
+      <c r="R199" s="54"/>
+      <c r="S199" s="54"/>
+      <c r="T199" s="54"/>
+      <c r="U199" s="55"/>
+      <c r="V199" s="56"/>
+      <c r="W199" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="49" t="n">
+      <c r="A200" s="48" t="n">
         <v>419</v>
       </c>
-      <c r="B200" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="50" t="s">
+      <c r="B200" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D200" s="51" t="s">
+      <c r="D200" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="E200" s="59" t="s">
+      <c r="E200" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="F200" s="53"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="55"/>
-      <c r="K200" s="55"/>
-      <c r="L200" s="55"/>
-      <c r="M200" s="55"/>
-      <c r="N200" s="55"/>
-      <c r="O200" s="55"/>
-      <c r="P200" s="55"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="55"/>
-      <c r="S200" s="55"/>
-      <c r="T200" s="55"/>
-      <c r="U200" s="56"/>
-      <c r="V200" s="57"/>
-      <c r="W200" s="58" t="s">
+      <c r="F200" s="52"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="53"/>
+      <c r="I200" s="53"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="54"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="54"/>
+      <c r="N200" s="54"/>
+      <c r="O200" s="54"/>
+      <c r="P200" s="54"/>
+      <c r="Q200" s="54"/>
+      <c r="R200" s="54"/>
+      <c r="S200" s="54"/>
+      <c r="T200" s="54"/>
+      <c r="U200" s="55"/>
+      <c r="V200" s="56"/>
+      <c r="W200" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="49" t="n">
+      <c r="A201" s="48" t="n">
         <v>423</v>
       </c>
-      <c r="B201" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C201" s="50" t="s">
+      <c r="B201" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D201" s="51" t="s">
+      <c r="D201" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="E201" s="60" t="s">
+      <c r="E201" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F201" s="53"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="55"/>
-      <c r="K201" s="55"/>
-      <c r="L201" s="55"/>
-      <c r="M201" s="55"/>
-      <c r="N201" s="55"/>
-      <c r="O201" s="55"/>
-      <c r="P201" s="55"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="55"/>
-      <c r="S201" s="55"/>
-      <c r="T201" s="55"/>
-      <c r="U201" s="56"/>
-      <c r="V201" s="57"/>
-      <c r="W201" s="58" t="s">
+      <c r="F201" s="52"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="53"/>
+      <c r="I201" s="53"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="54"/>
+      <c r="O201" s="54"/>
+      <c r="P201" s="54"/>
+      <c r="Q201" s="54"/>
+      <c r="R201" s="54"/>
+      <c r="S201" s="54"/>
+      <c r="T201" s="54"/>
+      <c r="U201" s="55"/>
+      <c r="V201" s="56"/>
+      <c r="W201" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="49" t="n">
+      <c r="A202" s="48" t="n">
         <v>424</v>
       </c>
-      <c r="B202" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C202" s="50" t="s">
+      <c r="B202" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D202" s="51" t="s">
+      <c r="D202" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E202" s="60" t="s">
+      <c r="E202" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F202" s="53"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="55"/>
-      <c r="K202" s="55"/>
-      <c r="L202" s="55"/>
-      <c r="M202" s="55"/>
-      <c r="N202" s="55"/>
-      <c r="O202" s="55"/>
-      <c r="P202" s="55"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="55"/>
-      <c r="S202" s="55"/>
-      <c r="T202" s="55"/>
-      <c r="U202" s="56"/>
-      <c r="V202" s="57"/>
-      <c r="W202" s="58" t="s">
+      <c r="F202" s="52"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
+      <c r="P202" s="54"/>
+      <c r="Q202" s="54"/>
+      <c r="R202" s="54"/>
+      <c r="S202" s="54"/>
+      <c r="T202" s="54"/>
+      <c r="U202" s="55"/>
+      <c r="V202" s="56"/>
+      <c r="W202" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="49" t="n">
+      <c r="A203" s="48" t="n">
         <v>425</v>
       </c>
-      <c r="B203" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="50" t="s">
+      <c r="B203" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D203" s="51" t="s">
+      <c r="D203" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="E203" s="59" t="s">
+      <c r="E203" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="F203" s="53"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="55"/>
-      <c r="K203" s="55"/>
-      <c r="L203" s="55"/>
-      <c r="M203" s="55"/>
-      <c r="N203" s="55"/>
-      <c r="O203" s="55"/>
-      <c r="P203" s="55"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="55"/>
-      <c r="S203" s="55"/>
-      <c r="T203" s="55"/>
-      <c r="U203" s="56"/>
-      <c r="V203" s="57"/>
-      <c r="W203" s="58" t="s">
+      <c r="F203" s="52"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="53"/>
+      <c r="J203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="54"/>
+      <c r="N203" s="54"/>
+      <c r="O203" s="54"/>
+      <c r="P203" s="54"/>
+      <c r="Q203" s="54"/>
+      <c r="R203" s="54"/>
+      <c r="S203" s="54"/>
+      <c r="T203" s="54"/>
+      <c r="U203" s="55"/>
+      <c r="V203" s="56"/>
+      <c r="W203" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="49" t="n">
+      <c r="A204" s="48" t="n">
         <v>426</v>
       </c>
-      <c r="B204" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="50" t="s">
+      <c r="B204" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D204" s="51" t="s">
+      <c r="D204" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="E204" s="59" t="s">
+      <c r="E204" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="F204" s="53"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
-      <c r="J204" s="55"/>
-      <c r="K204" s="55"/>
-      <c r="L204" s="55"/>
-      <c r="M204" s="55"/>
-      <c r="N204" s="55"/>
-      <c r="O204" s="55"/>
-      <c r="P204" s="55"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="55"/>
-      <c r="S204" s="55"/>
-      <c r="T204" s="55"/>
-      <c r="U204" s="56"/>
-      <c r="V204" s="57"/>
-      <c r="W204" s="58" t="s">
+      <c r="F204" s="52"/>
+      <c r="G204" s="53"/>
+      <c r="H204" s="53"/>
+      <c r="I204" s="53"/>
+      <c r="J204" s="54"/>
+      <c r="K204" s="54"/>
+      <c r="L204" s="54"/>
+      <c r="M204" s="54"/>
+      <c r="N204" s="54"/>
+      <c r="O204" s="54"/>
+      <c r="P204" s="54"/>
+      <c r="Q204" s="54"/>
+      <c r="R204" s="54"/>
+      <c r="S204" s="54"/>
+      <c r="T204" s="54"/>
+      <c r="U204" s="55"/>
+      <c r="V204" s="56"/>
+      <c r="W204" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="49" t="n">
+      <c r="A205" s="48" t="n">
         <v>432</v>
       </c>
-      <c r="B205" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C205" s="50" t="s">
+      <c r="B205" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D205" s="51" t="s">
+      <c r="D205" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="E205" s="59" t="s">
+      <c r="E205" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="F205" s="53"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
-      <c r="J205" s="55"/>
-      <c r="K205" s="55"/>
-      <c r="L205" s="55"/>
-      <c r="M205" s="55"/>
-      <c r="N205" s="55"/>
-      <c r="O205" s="55"/>
-      <c r="P205" s="55"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="55"/>
-      <c r="S205" s="55"/>
-      <c r="T205" s="55"/>
-      <c r="U205" s="56"/>
-      <c r="V205" s="57"/>
-      <c r="W205" s="58" t="s">
+      <c r="F205" s="52"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="53"/>
+      <c r="I205" s="53"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="54"/>
+      <c r="L205" s="54"/>
+      <c r="M205" s="54"/>
+      <c r="N205" s="54"/>
+      <c r="O205" s="54"/>
+      <c r="P205" s="54"/>
+      <c r="Q205" s="54"/>
+      <c r="R205" s="54"/>
+      <c r="S205" s="54"/>
+      <c r="T205" s="54"/>
+      <c r="U205" s="55"/>
+      <c r="V205" s="56"/>
+      <c r="W205" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="49" t="n">
+      <c r="A206" s="48" t="n">
         <v>433</v>
       </c>
-      <c r="B206" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="50" t="s">
+      <c r="B206" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D206" s="51" t="s">
+      <c r="D206" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="E206" s="59" t="s">
+      <c r="E206" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="F206" s="53"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="54"/>
-      <c r="J206" s="55"/>
-      <c r="K206" s="55"/>
-      <c r="L206" s="55"/>
-      <c r="M206" s="55"/>
-      <c r="N206" s="55"/>
-      <c r="O206" s="55"/>
-      <c r="P206" s="55"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="55"/>
-      <c r="S206" s="55"/>
-      <c r="T206" s="55"/>
-      <c r="U206" s="56"/>
-      <c r="V206" s="57"/>
-      <c r="W206" s="58" t="s">
+      <c r="F206" s="52"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="53"/>
+      <c r="J206" s="54"/>
+      <c r="K206" s="54"/>
+      <c r="L206" s="54"/>
+      <c r="M206" s="54"/>
+      <c r="N206" s="54"/>
+      <c r="O206" s="54"/>
+      <c r="P206" s="54"/>
+      <c r="Q206" s="54"/>
+      <c r="R206" s="54"/>
+      <c r="S206" s="54"/>
+      <c r="T206" s="54"/>
+      <c r="U206" s="55"/>
+      <c r="V206" s="56"/>
+      <c r="W206" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="49" t="n">
+      <c r="A207" s="48" t="n">
         <v>434</v>
       </c>
-      <c r="B207" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" s="50" t="s">
+      <c r="B207" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="E207" s="59" t="s">
+      <c r="E207" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="F207" s="53"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="55"/>
-      <c r="K207" s="55"/>
-      <c r="L207" s="55"/>
-      <c r="M207" s="55"/>
-      <c r="N207" s="55"/>
-      <c r="O207" s="55"/>
-      <c r="P207" s="55"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="55"/>
-      <c r="S207" s="55"/>
-      <c r="T207" s="55"/>
-      <c r="U207" s="56"/>
-      <c r="V207" s="57"/>
-      <c r="W207" s="58" t="s">
+      <c r="F207" s="52"/>
+      <c r="G207" s="53"/>
+      <c r="H207" s="53"/>
+      <c r="I207" s="53"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="54"/>
+      <c r="L207" s="54"/>
+      <c r="M207" s="54"/>
+      <c r="N207" s="54"/>
+      <c r="O207" s="54"/>
+      <c r="P207" s="54"/>
+      <c r="Q207" s="54"/>
+      <c r="R207" s="54"/>
+      <c r="S207" s="54"/>
+      <c r="T207" s="54"/>
+      <c r="U207" s="55"/>
+      <c r="V207" s="56"/>
+      <c r="W207" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="49" t="n">
+      <c r="A208" s="48" t="n">
         <v>435</v>
       </c>
-      <c r="B208" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" s="50" t="s">
+      <c r="B208" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D208" s="51" t="s">
+      <c r="D208" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="E208" s="59" t="s">
+      <c r="E208" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="F208" s="53"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="54"/>
-      <c r="I208" s="54"/>
-      <c r="J208" s="55"/>
-      <c r="K208" s="55"/>
-      <c r="L208" s="55"/>
-      <c r="M208" s="55"/>
-      <c r="N208" s="55"/>
-      <c r="O208" s="55"/>
-      <c r="P208" s="55"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="55"/>
-      <c r="S208" s="55"/>
-      <c r="T208" s="55"/>
-      <c r="U208" s="56"/>
-      <c r="V208" s="57"/>
-      <c r="W208" s="58" t="s">
+      <c r="F208" s="52"/>
+      <c r="G208" s="53"/>
+      <c r="H208" s="53"/>
+      <c r="I208" s="53"/>
+      <c r="J208" s="54"/>
+      <c r="K208" s="54"/>
+      <c r="L208" s="54"/>
+      <c r="M208" s="54"/>
+      <c r="N208" s="54"/>
+      <c r="O208" s="54"/>
+      <c r="P208" s="54"/>
+      <c r="Q208" s="54"/>
+      <c r="R208" s="54"/>
+      <c r="S208" s="54"/>
+      <c r="T208" s="54"/>
+      <c r="U208" s="55"/>
+      <c r="V208" s="56"/>
+      <c r="W208" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="49" t="n">
+      <c r="A209" s="48" t="n">
         <v>437</v>
       </c>
-      <c r="B209" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" s="50" t="s">
+      <c r="B209" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D209" s="51" t="s">
+      <c r="D209" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="E209" s="59" t="s">
+      <c r="E209" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="F209" s="53"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="55"/>
-      <c r="L209" s="55"/>
-      <c r="M209" s="55"/>
-      <c r="N209" s="55"/>
-      <c r="O209" s="55"/>
-      <c r="P209" s="55"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="55"/>
-      <c r="S209" s="55"/>
-      <c r="T209" s="55"/>
-      <c r="U209" s="56"/>
-      <c r="V209" s="57"/>
-      <c r="W209" s="58" t="s">
+      <c r="F209" s="52"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="53"/>
+      <c r="I209" s="53"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="54"/>
+      <c r="N209" s="54"/>
+      <c r="O209" s="54"/>
+      <c r="P209" s="54"/>
+      <c r="Q209" s="54"/>
+      <c r="R209" s="54"/>
+      <c r="S209" s="54"/>
+      <c r="T209" s="54"/>
+      <c r="U209" s="55"/>
+      <c r="V209" s="56"/>
+      <c r="W209" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="49" t="n">
+      <c r="A210" s="48" t="n">
         <v>438</v>
       </c>
-      <c r="B210" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" s="50" t="s">
+      <c r="B210" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D210" s="51" t="s">
+      <c r="D210" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="E210" s="59" t="s">
+      <c r="E210" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="F210" s="53"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
-      <c r="I210" s="54"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="55"/>
-      <c r="O210" s="55"/>
-      <c r="P210" s="55"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="55"/>
-      <c r="S210" s="55"/>
-      <c r="T210" s="55"/>
-      <c r="U210" s="56"/>
-      <c r="V210" s="57"/>
-      <c r="W210" s="58" t="s">
+      <c r="F210" s="52"/>
+      <c r="G210" s="53"/>
+      <c r="H210" s="53"/>
+      <c r="I210" s="53"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="54"/>
+      <c r="L210" s="54"/>
+      <c r="M210" s="54"/>
+      <c r="N210" s="54"/>
+      <c r="O210" s="54"/>
+      <c r="P210" s="54"/>
+      <c r="Q210" s="54"/>
+      <c r="R210" s="54"/>
+      <c r="S210" s="54"/>
+      <c r="T210" s="54"/>
+      <c r="U210" s="55"/>
+      <c r="V210" s="56"/>
+      <c r="W210" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="49" t="n">
+      <c r="A211" s="48" t="n">
         <v>440</v>
       </c>
-      <c r="B211" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C211" s="50" t="s">
+      <c r="B211" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D211" s="51" t="s">
+      <c r="D211" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="E211" s="59" t="s">
+      <c r="E211" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="F211" s="53"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
-      <c r="J211" s="55"/>
-      <c r="K211" s="55"/>
-      <c r="L211" s="55"/>
-      <c r="M211" s="55"/>
-      <c r="N211" s="55"/>
-      <c r="O211" s="55"/>
-      <c r="P211" s="55"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="55"/>
-      <c r="S211" s="55"/>
-      <c r="T211" s="55"/>
-      <c r="U211" s="56"/>
-      <c r="V211" s="57"/>
-      <c r="W211" s="58" t="s">
+      <c r="F211" s="52"/>
+      <c r="G211" s="53"/>
+      <c r="H211" s="53"/>
+      <c r="I211" s="53"/>
+      <c r="J211" s="54"/>
+      <c r="K211" s="54"/>
+      <c r="L211" s="54"/>
+      <c r="M211" s="54"/>
+      <c r="N211" s="54"/>
+      <c r="O211" s="54"/>
+      <c r="P211" s="54"/>
+      <c r="Q211" s="54"/>
+      <c r="R211" s="54"/>
+      <c r="S211" s="54"/>
+      <c r="T211" s="54"/>
+      <c r="U211" s="55"/>
+      <c r="V211" s="56"/>
+      <c r="W211" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="49" t="n">
+      <c r="A212" s="48" t="n">
         <v>441</v>
       </c>
-      <c r="B212" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="50" t="s">
+      <c r="B212" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D212" s="51" t="s">
+      <c r="D212" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="E212" s="59" t="s">
+      <c r="E212" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="F212" s="53"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="54"/>
-      <c r="I212" s="54"/>
-      <c r="J212" s="55"/>
-      <c r="K212" s="55"/>
-      <c r="L212" s="55"/>
-      <c r="M212" s="55"/>
-      <c r="N212" s="55"/>
-      <c r="O212" s="55"/>
-      <c r="P212" s="55"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="55"/>
-      <c r="S212" s="55"/>
-      <c r="T212" s="55"/>
-      <c r="U212" s="56"/>
-      <c r="V212" s="57"/>
-      <c r="W212" s="58" t="s">
+      <c r="F212" s="52"/>
+      <c r="G212" s="53"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="54"/>
+      <c r="K212" s="54"/>
+      <c r="L212" s="54"/>
+      <c r="M212" s="54"/>
+      <c r="N212" s="54"/>
+      <c r="O212" s="54"/>
+      <c r="P212" s="54"/>
+      <c r="Q212" s="54"/>
+      <c r="R212" s="54"/>
+      <c r="S212" s="54"/>
+      <c r="T212" s="54"/>
+      <c r="U212" s="55"/>
+      <c r="V212" s="56"/>
+      <c r="W212" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="40" t="n">
+      <c r="A213" s="39" t="n">
         <v>442</v>
       </c>
-      <c r="B213" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" s="41" t="s">
+      <c r="B213" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="D213" s="41" t="s">
+      <c r="D213" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="E213" s="42" t="s">
+      <c r="E213" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="F213" s="43"/>
-      <c r="G213" s="44"/>
-      <c r="H213" s="44"/>
-      <c r="I213" s="44"/>
-      <c r="J213" s="45"/>
-      <c r="K213" s="45"/>
-      <c r="L213" s="45"/>
-      <c r="M213" s="45"/>
-      <c r="N213" s="45"/>
-      <c r="O213" s="45"/>
-      <c r="P213" s="45"/>
-      <c r="Q213" s="45"/>
-      <c r="R213" s="45"/>
-      <c r="S213" s="45"/>
-      <c r="T213" s="45"/>
-      <c r="U213" s="46"/>
-      <c r="V213" s="61"/>
-      <c r="W213" s="62" t="s">
+      <c r="F213" s="42"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="44"/>
+      <c r="K213" s="44"/>
+      <c r="L213" s="44"/>
+      <c r="M213" s="44"/>
+      <c r="N213" s="44"/>
+      <c r="O213" s="44"/>
+      <c r="P213" s="44"/>
+      <c r="Q213" s="44"/>
+      <c r="R213" s="44"/>
+      <c r="S213" s="44"/>
+      <c r="T213" s="44"/>
+      <c r="U213" s="45"/>
+      <c r="V213" s="60"/>
+      <c r="W213" s="61" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="49" t="n">
+      <c r="A214" s="48" t="n">
         <v>443</v>
       </c>
-      <c r="B214" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C214" s="50" t="s">
+      <c r="B214" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D214" s="50" t="s">
+      <c r="D214" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="E214" s="52" t="s">
+      <c r="E214" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="F214" s="53"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="54"/>
-      <c r="J214" s="55"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
-      <c r="O214" s="55"/>
-      <c r="P214" s="55"/>
-      <c r="Q214" s="55"/>
-      <c r="R214" s="55"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="55"/>
-      <c r="U214" s="56"/>
-      <c r="V214" s="57"/>
-      <c r="W214" s="58" t="s">
+      <c r="F214" s="52"/>
+      <c r="G214" s="53"/>
+      <c r="H214" s="53"/>
+      <c r="I214" s="53"/>
+      <c r="J214" s="54"/>
+      <c r="K214" s="54"/>
+      <c r="L214" s="54"/>
+      <c r="M214" s="54"/>
+      <c r="N214" s="54"/>
+      <c r="O214" s="54"/>
+      <c r="P214" s="54"/>
+      <c r="Q214" s="54"/>
+      <c r="R214" s="54"/>
+      <c r="S214" s="54"/>
+      <c r="T214" s="54"/>
+      <c r="U214" s="55"/>
+      <c r="V214" s="56"/>
+      <c r="W214" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="49" t="n">
+      <c r="A215" s="48" t="n">
         <v>444</v>
       </c>
-      <c r="B215" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" s="50" t="s">
+      <c r="B215" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D215" s="50" t="s">
+      <c r="D215" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="E215" s="52" t="s">
+      <c r="E215" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="F215" s="53" t="n">
-        <v>45678</v>
-      </c>
-      <c r="G215" s="54" t="s">
+      <c r="F215" s="52" t="n">
+        <v>45680</v>
+      </c>
+      <c r="G215" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="H215" s="54" t="s">
+      <c r="H215" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="I215" s="54" t="s">
+      <c r="I215" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="J215" s="55" t="s">
+      <c r="J215" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="K215" s="55"/>
-      <c r="L215" s="55"/>
-      <c r="M215" s="55"/>
-      <c r="N215" s="55"/>
-      <c r="O215" s="55"/>
-      <c r="P215" s="55"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="55"/>
-      <c r="S215" s="55"/>
-      <c r="T215" s="55"/>
-      <c r="U215" s="56"/>
-      <c r="V215" s="57"/>
-      <c r="W215" s="58" t="s">
+      <c r="K215" s="54"/>
+      <c r="L215" s="54"/>
+      <c r="M215" s="54"/>
+      <c r="N215" s="54"/>
+      <c r="O215" s="54"/>
+      <c r="P215" s="54"/>
+      <c r="Q215" s="54"/>
+      <c r="R215" s="54"/>
+      <c r="S215" s="54"/>
+      <c r="T215" s="54"/>
+      <c r="U215" s="55"/>
+      <c r="V215" s="56"/>
+      <c r="W215" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="49" t="n">
+      <c r="A216" s="48" t="n">
         <v>445</v>
       </c>
-      <c r="B216" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="50" t="s">
+      <c r="B216" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D216" s="50" t="s">
+      <c r="D216" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="E216" s="52" t="s">
+      <c r="E216" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="F216" s="53" t="n">
-        <v>45678</v>
-      </c>
-      <c r="G216" s="54" t="s">
+      <c r="F216" s="52" t="n">
+        <v>45680</v>
+      </c>
+      <c r="G216" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="H216" s="54" t="s">
+      <c r="H216" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="I216" s="54" t="s">
+      <c r="I216" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="J216" s="55" t="s">
+      <c r="J216" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="K216" s="55"/>
-      <c r="L216" s="55"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="55"/>
-      <c r="O216" s="55"/>
-      <c r="P216" s="55"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="55"/>
-      <c r="S216" s="55"/>
-      <c r="T216" s="55"/>
-      <c r="U216" s="56"/>
-      <c r="V216" s="57"/>
-      <c r="W216" s="58" t="s">
+      <c r="K216" s="54"/>
+      <c r="L216" s="54"/>
+      <c r="M216" s="54"/>
+      <c r="N216" s="54"/>
+      <c r="O216" s="54"/>
+      <c r="P216" s="54"/>
+      <c r="Q216" s="54"/>
+      <c r="R216" s="54"/>
+      <c r="S216" s="54"/>
+      <c r="T216" s="54"/>
+      <c r="U216" s="55"/>
+      <c r="V216" s="56"/>
+      <c r="W216" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="40" t="n">
+      <c r="A217" s="39" t="n">
         <v>446</v>
       </c>
-      <c r="B217" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="41" t="s">
+      <c r="B217" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D217" s="41" t="s">
+      <c r="D217" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E217" s="42" t="s">
+      <c r="E217" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="F217" s="43"/>
-      <c r="G217" s="44"/>
-      <c r="H217" s="44"/>
-      <c r="I217" s="44"/>
-      <c r="J217" s="45"/>
-      <c r="K217" s="45"/>
-      <c r="L217" s="45"/>
-      <c r="M217" s="45"/>
-      <c r="N217" s="45"/>
-      <c r="O217" s="45"/>
-      <c r="P217" s="45"/>
-      <c r="Q217" s="45"/>
-      <c r="R217" s="45"/>
-      <c r="S217" s="45"/>
-      <c r="T217" s="45"/>
-      <c r="U217" s="46"/>
-      <c r="V217" s="61"/>
-      <c r="W217" s="62" t="s">
+      <c r="F217" s="42"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
+      <c r="J217" s="44"/>
+      <c r="K217" s="44"/>
+      <c r="L217" s="44"/>
+      <c r="M217" s="44"/>
+      <c r="N217" s="44"/>
+      <c r="O217" s="44"/>
+      <c r="P217" s="44"/>
+      <c r="Q217" s="44"/>
+      <c r="R217" s="44"/>
+      <c r="S217" s="44"/>
+      <c r="T217" s="44"/>
+      <c r="U217" s="45"/>
+      <c r="V217" s="60"/>
+      <c r="W217" s="61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="49" t="n">
+      <c r="A218" s="48" t="n">
         <v>447</v>
       </c>
-      <c r="B218" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C218" s="50" t="s">
+      <c r="B218" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D218" s="50" t="s">
+      <c r="D218" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E218" s="52" t="s">
+      <c r="E218" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="F218" s="53"/>
-      <c r="G218" s="54"/>
-      <c r="H218" s="54"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="55"/>
-      <c r="K218" s="55"/>
-      <c r="L218" s="55"/>
-      <c r="M218" s="55"/>
-      <c r="N218" s="55"/>
-      <c r="O218" s="55"/>
-      <c r="P218" s="55"/>
-      <c r="Q218" s="55"/>
-      <c r="R218" s="55"/>
-      <c r="S218" s="55"/>
-      <c r="T218" s="55"/>
-      <c r="U218" s="56"/>
-      <c r="V218" s="57"/>
-      <c r="W218" s="58" t="s">
+      <c r="F218" s="52"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="53"/>
+      <c r="I218" s="53"/>
+      <c r="J218" s="54"/>
+      <c r="K218" s="54"/>
+      <c r="L218" s="54"/>
+      <c r="M218" s="54"/>
+      <c r="N218" s="54"/>
+      <c r="O218" s="54"/>
+      <c r="P218" s="54"/>
+      <c r="Q218" s="54"/>
+      <c r="R218" s="54"/>
+      <c r="S218" s="54"/>
+      <c r="T218" s="54"/>
+      <c r="U218" s="55"/>
+      <c r="V218" s="56"/>
+      <c r="W218" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="49" t="n">
+      <c r="A219" s="48" t="n">
         <v>460</v>
       </c>
-      <c r="B219" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="50" t="s">
+      <c r="B219" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D219" s="50" t="s">
+      <c r="D219" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="E219" s="52" t="s">
+      <c r="E219" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="F219" s="53"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="54"/>
-      <c r="I219" s="54"/>
-      <c r="J219" s="55"/>
-      <c r="K219" s="55"/>
-      <c r="L219" s="55"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="55"/>
-      <c r="O219" s="55"/>
-      <c r="P219" s="55"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="55"/>
-      <c r="S219" s="55"/>
-      <c r="T219" s="55"/>
-      <c r="U219" s="56"/>
-      <c r="V219" s="57"/>
-      <c r="W219" s="58" t="s">
+      <c r="F219" s="52"/>
+      <c r="G219" s="53"/>
+      <c r="H219" s="53"/>
+      <c r="I219" s="53"/>
+      <c r="J219" s="54"/>
+      <c r="K219" s="54"/>
+      <c r="L219" s="54"/>
+      <c r="M219" s="54"/>
+      <c r="N219" s="54"/>
+      <c r="O219" s="54"/>
+      <c r="P219" s="54"/>
+      <c r="Q219" s="54"/>
+      <c r="R219" s="54"/>
+      <c r="S219" s="54"/>
+      <c r="T219" s="54"/>
+      <c r="U219" s="55"/>
+      <c r="V219" s="56"/>
+      <c r="W219" s="57" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15576,7 +15572,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>482</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -15588,150 +15584,150 @@
       <c r="D1" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>485</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>490</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C4" s="67" t="n">
+      <c r="C4" s="66" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>495</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>501</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>506</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15767,32 +15763,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111AZSERVESRLXX/Azserve/EumedWeb/1.0.0/report-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111AZSERVESRLXX/Azserve/EumedWeb/1.0.0/report-checklist_V8.2.2.xlsx
@@ -1823,13 +1823,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-23T16:56:27Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c02480ed5fa7ba55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.c9855af3dc795b7d5539b10167cc4da13c9e7fd1207646c0a47862ca5b3571e0.f78f11e5d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-24T17:31:57Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36200ed7c90ec9cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.6d0f8c88a85d22aea5ade0b6fc07036de0f8bf6846f3d30dcec0cacebe263928.601a72477a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
@@ -1840,13 +1840,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-23T16:59:25Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b4b2fc22782320d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.ac6ebfe9d87591f32c9b33d3ffe07da1f8570cc1af5f203f7d789a7b28eb56c9.8c37dfb63b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-01-24T17:33:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b75f7cd4c3f4b757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50.2.9999.4.4.2.1c2c4f451f80e285322ece980a7b9b40c26c8b9fbef10ed95508dede7cebcf76.cd2bf1b9c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -3096,7 +3096,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A189" activeCellId="0" sqref="A189"/>
-      <selection pane="bottomRight" activeCell="J216" activeCellId="0" sqref="J216"/>
+      <selection pane="bottomRight" activeCell="G189" activeCellId="0" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3383,7 +3383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>1</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>464</v>
       </c>
       <c r="F215" s="52" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="G215" s="53" t="s">
         <v>465</v>
@@ -11188,7 +11188,7 @@
         <v>469</v>
       </c>
       <c r="F216" s="52" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="G216" s="53" t="s">
         <v>470</v>
